--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy.fitzgerald/Dropbox/Web/CFP-Framework/_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="8680" windowWidth="27300" windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6460" yWindow="460" windowWidth="29320" windowHeight="17760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <sheet name="feed" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">catalogue!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">catalogue!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">directory!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">feed!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">navigation!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
   <si>
     <t>description</t>
   </si>
@@ -80,21 +75,12 @@
     <t>event-type</t>
   </si>
   <si>
-    <t>2020-11-07</t>
-  </si>
-  <si>
     <t>sub-nav</t>
   </si>
   <si>
     <t>Home</t>
   </si>
   <si>
-    <t>This is the person biography</t>
-  </si>
-  <si>
-    <t>This is the event description</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -110,21 +96,6 @@
     <t>full-name</t>
   </si>
   <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Gately</t>
-  </si>
-  <si>
-    <t>This is the catalogue item description.</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item </t>
-  </si>
-  <si>
     <t>item-name</t>
   </si>
   <si>
@@ -135,13 +106,626 @@
   </si>
   <si>
     <t>/events.html</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age-category</t>
+  </si>
+  <si>
+    <t>instructor</t>
+  </si>
+  <si>
+    <t>Adult Pottery</t>
+  </si>
+  <si>
+    <t>Adult Pottery - Beginner</t>
+  </si>
+  <si>
+    <t>Adult Pottery - Intermediate</t>
+  </si>
+  <si>
+    <t>Circuit Training Boot Camp</t>
+  </si>
+  <si>
+    <t>Creative Dance</t>
+  </si>
+  <si>
+    <t>Hatha Yoga</t>
+  </si>
+  <si>
+    <t>Hawaiian Hula Dance</t>
+  </si>
+  <si>
+    <t>Parent &amp; Child Pottery</t>
+  </si>
+  <si>
+    <t>Pre-Ballet</t>
+  </si>
+  <si>
+    <t>Senior Pottery</t>
+  </si>
+  <si>
+    <t>Slow Floor Yoga</t>
+  </si>
+  <si>
+    <t>Stand Strong, Be Balanced!</t>
+  </si>
+  <si>
+    <t>Tai Chi</t>
+  </si>
+  <si>
+    <t>Youth Pottery</t>
+  </si>
+  <si>
+    <t>Youth Table Tennis Class</t>
+  </si>
+  <si>
+    <t>Zumba® Class for Kids</t>
+  </si>
+  <si>
+    <t>Zy Quigong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students will make hand build slab vases, teapots sets, press mold, imprinting boxes, along with painting with slip, carving, and inlay design. They will also keep throwing on the pottery wheels to make dinner ware like bowls, plates, saucers, pitchers, sugar jar with lid, etc. No experience needed. Just come to exercise your imagination through the creative process. Your first bag of clay is included in the class fee. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this beginner pottery class students will discover the beauty of both hand-building and wheel-throwing techniques. Students will learn how to make bowels, cups, plates, and vases, alter the shape from wheel thrown pieces, and decorate their pieces with color slip design and glaze. Students will each receive a free bag of clay and free studio time during the quarter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course is for students who already have the basic throwing skills and wants to try larger forms on wheel or hand-built sculptures. We will continue working with large wheel throwing pieces, combined with hand-built sculpture, double-wall pot, upside-down plate, and more. Students will learn to use under- glaze, oxide paint, and mocha diffusion surface decoration to finish their clay projects. Student will each receive a free bag of clay and access to studio during the quarter. Sign up early. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get moving in one of our many fitness classes, including but not limited to boot camps, weight lifting, Intro to personal fitness, circuit training and a variety of dance fitness courses. Boot-camp is a combination of strength, cardio, muscle endurance, flexibility, core, and functional movement patterns. You get EVERYTHING you need! These boot camps are designed in a way to be different all the time, and push our participants harder than they'd push themselves. We want to keep you guessing - and challenge you differently every class! Workouts formats will consist of running, HIIT (high-intensity interval training), bodyweight, stations, and more. Modifications available in this positive &amp; supportive environment. We want you to have tons of fun – but please be prepared for some high i Get fit at the boathouse! Be healthy! Have more energy! This 'on-land' class is designed for you! No boating experience is necessary. Increase your stamina, strengthen your core, tone your muscles, and increase your flexibility. This conditioning course will develop your fitness by using free weights, physio-balls, rowing machines, and some yoga. Each class is one hour - twice a week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through fantasy and games, boys and girls learn basic movement skills and dance vocabulary. Children will be encouraged to work as a team and make individual choices in their expressive movement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentle Hatha Yoga for beginners and students seeking a nurturing, slower-paced class. Uniting breath and alignment, students will cultivate strength, flexibility, and relaxation. Please bring your own mat and water bottle. </t>
+  </si>
+  <si>
+    <t>Learn dance steps, hand movements, language, and customs in a welcoming, creative environment. Fit them together in the telling of a story. Fun, low impact exercise!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create clay art with your kids! Kids learn different hand building terms and techniques, coil slab, pinch pot, etc. We will also make and decorate pots, cups, bowls, and plates on a pottery wheel. </t>
+  </si>
+  <si>
+    <t>This class engages your child’s imagination while creating a focused container for their energy and enthusiasm. Motor skills and musicality are emphasized through games, exercises, and mini performances inside the classroom. An elementary ballet vocabulary will be used as a language for movement, as well as phrases and key words from other dance mediums. Students should wear close fitting clothes with ballet slippers or bare feet and have their hair pulled out of the face.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore your creativity with clay media using hand-building and wheel-based techniques. Students will make hand build slab vases, teapots sets, press mold, imprinting boxes, along with painting with slip, carving, and inlay design. They will also keep throwing on the pottery wheels to make dinner ware like bowl, plate, saucer, pitcher, sugar jar with lid, etc. No experience needed. Just come to exercise your imagination through the art making process. Student will each receive a free bag of clay and access to studio during the quarter. Sign up early. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniting breath with synchronized movements, this vinyasa style class weaves each pose into the next mindfully and with ease. Students will learn to use their breath to flow from one pose to the next safely and with awareness. Introduction to backbends, balancing postures, and inversions will enhance this well rounded class, allowing students to explore the depths of their practice in a supportive, non-competitive environment. Final rest and relaxation encourages rejuvenation and enhances a sense of calm and clarity for students to bring with them throughout their day. All levels welcome. Limited mats and props provided. Students are encouraged to bring a mat, blanket, and water bottle. </t>
+  </si>
+  <si>
+    <t>Get moving in one of our many fitness classes, including but not limited to boot camps, weight lifting, Intro to personal fitness, circuit training and a variety of dance fitness courses. Learn how to improve balance in this comprehensive eight week falls-prevention program. Each class includes an informative talk, lively group discussion and light strengthening exercises. Come in comfortable clothing ready to take notes. Instructor: Lisa Steubing. 8-CLASS SESSION. 1/4 - 2/29. No class 1/18, 2/15. Class location: Village Cove, 6850 Woodlawn Ave NE, 98115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn the Yang style of Tai Chi using slow, soft, and circular movements to harmonize body and mind. Often described as moving meditation this practice promotes balance, concentration, and relaxation. Wear loose comfortable clothing. No class 1/18, 2/15. </t>
+  </si>
+  <si>
+    <t>Explore your creativity with clay media using hand-building and wheel-based techniques. In this program, students will learn how to throw bowels, mugs, and plates on pottery wheels. They will also make animal sculptures, coil vases, clay whistles, masks, etc. Students will explore different surface decoration techniques such as graffito, carving, and painting with slip to finish their clay projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come sign up for a super fun game of table tennis. Learn effective strokes, serve and return of serve, along with footwork. Program is taught by Javier Fletcher and friends and runs 1.5 hours each day after which participants can then stay for an additional 1.5 hours of open play. </t>
+  </si>
+  <si>
+    <t>This class is perfect for our younger Zumba® fans! Kids 7 through 9 years old get the chance to socialize with friends and jam out to their favorite music. Zumba® Kids, classes are rocking, high-energy dance parties packed with kid-friendly routines. Kids are encouraged to develop an active life style and jam out to their favorite music. Zumba® Kids classes feature kid-friendly routines, based on original Zumba® choreography. During this class the instructor will break down steps, add games, activities, and cultural exploration elements into the class structure. Please wear comfortable clothing, tennis shoes and bring your own water bottle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come join Lydia Neal and Sarah Porter, certified qigong instructors as they teach one of the worlds’ most ancient and complete healing and self-development systems. Learn to: activate your energy center and system; absorb, generate, and move energy; increase your energy level and vitality; reach a deep relaxed state; balance and improve your immune and digestive systems and feel more present with your daily life. </t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>14+</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>50 +</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>7-16</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>tots</t>
+  </si>
+  <si>
+    <t>youth</t>
+  </si>
+  <si>
+    <t>seniors</t>
+  </si>
+  <si>
+    <t>visual arts and crafts</t>
+  </si>
+  <si>
+    <t>fitness health and wellness</t>
+  </si>
+  <si>
+    <t>performing arts and dance</t>
+  </si>
+  <si>
+    <t>athletics instruction</t>
+  </si>
+  <si>
+    <t>Jocelyn Yee</t>
+  </si>
+  <si>
+    <t>Natalie Phillips</t>
+  </si>
+  <si>
+    <t>Avery Douglas</t>
+  </si>
+  <si>
+    <t>Ramona Stephens</t>
+  </si>
+  <si>
+    <t>Brandon Murray</t>
+  </si>
+  <si>
+    <t>Javier Fletcher</t>
+  </si>
+  <si>
+    <t>Ana Andrews</t>
+  </si>
+  <si>
+    <t>Lydia Neal and Sarah Porter</t>
+  </si>
+  <si>
+    <t>adult-pottery.png</t>
+  </si>
+  <si>
+    <t>circuit-training.png</t>
+  </si>
+  <si>
+    <t>creative-dance.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatha-yoga.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hula-dance.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent-child-pottery.png
+</t>
+  </si>
+  <si>
+    <t>pre-ballet.png</t>
+  </si>
+  <si>
+    <t>senior-pottery.png</t>
+  </si>
+  <si>
+    <t>floor-yoga.png</t>
+  </si>
+  <si>
+    <t>senior-fitness.png</t>
+  </si>
+  <si>
+    <t>tai-chi.png</t>
+  </si>
+  <si>
+    <t>youth-pottery.png</t>
+  </si>
+  <si>
+    <t>youth-table-tennis.png</t>
+  </si>
+  <si>
+    <t>zumba-kids.png</t>
+  </si>
+  <si>
+    <t>zy-quigong.png</t>
+  </si>
+  <si>
+    <t>date-1</t>
+  </si>
+  <si>
+    <t>days-1</t>
+  </si>
+  <si>
+    <t>time-1</t>
+  </si>
+  <si>
+    <t>cost-1</t>
+  </si>
+  <si>
+    <t>date-2</t>
+  </si>
+  <si>
+    <t>days-2</t>
+  </si>
+  <si>
+    <t>time-2</t>
+  </si>
+  <si>
+    <t>cost-2</t>
+  </si>
+  <si>
+    <t>date-3</t>
+  </si>
+  <si>
+    <t>days-3</t>
+  </si>
+  <si>
+    <t>time-3</t>
+  </si>
+  <si>
+    <t>cost-3</t>
+  </si>
+  <si>
+    <t>date-4</t>
+  </si>
+  <si>
+    <t>days-4</t>
+  </si>
+  <si>
+    <t>time-4</t>
+  </si>
+  <si>
+    <t>cost-4</t>
+  </si>
+  <si>
+    <t>1/19-3/9</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>10-12:30 pm</t>
+  </si>
+  <si>
+    <t>1/19-3/8</t>
+  </si>
+  <si>
+    <t>6:30-9:00 pm</t>
+  </si>
+  <si>
+    <t>1/20-3/9</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>2/2-2/25</t>
+  </si>
+  <si>
+    <t>Tuesday/Thursday</t>
+  </si>
+  <si>
+    <t>7-8 am</t>
+  </si>
+  <si>
+    <t>2/6-2/27</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>3/1-3/31</t>
+  </si>
+  <si>
+    <t>3/5-3/26</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/23-2/20 </t>
+  </si>
+  <si>
+    <t>9:15-10 am</t>
+  </si>
+  <si>
+    <t>2/27-3/26</t>
+  </si>
+  <si>
+    <t>1/12-2/9</t>
+  </si>
+  <si>
+    <t>11:30 am-12:30 pm</t>
+  </si>
+  <si>
+    <t>2/16-3/15</t>
+  </si>
+  <si>
+    <t>1/5-1/26</t>
+  </si>
+  <si>
+    <t>5:45-6:45 pm</t>
+  </si>
+  <si>
+    <t>2/2-2/23</t>
+  </si>
+  <si>
+    <t>3/1-3/29</t>
+  </si>
+  <si>
+    <t>1/21-2/18</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>10-11 am</t>
+  </si>
+  <si>
+    <t>2/25-3/24</t>
+  </si>
+  <si>
+    <t>10-11am</t>
+  </si>
+  <si>
+    <t>1/17-2/14</t>
+  </si>
+  <si>
+    <t>10-10:45 am</t>
+  </si>
+  <si>
+    <t>2/21-3/21</t>
+  </si>
+  <si>
+    <t>1/14-2/11</t>
+  </si>
+  <si>
+    <t>2/18-3/17</t>
+  </si>
+  <si>
+    <t>1/4-1/26</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>7-8 pm</t>
+  </si>
+  <si>
+    <t>2/1-2/22</t>
+  </si>
+  <si>
+    <t>3/1-3/28</t>
+  </si>
+  <si>
+    <t>1/13-2/10</t>
+  </si>
+  <si>
+    <t>5:15-6:45 pm</t>
+  </si>
+  <si>
+    <t>2/17-3/16</t>
+  </si>
+  <si>
+    <t>1/19-1/30</t>
+  </si>
+  <si>
+    <t>1/16-3/19</t>
+  </si>
+  <si>
+    <t>1-2 pm</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Yee</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Ramona</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Jocelyn began her creative adventures as a 2-D fine artist, moving on to earn a BFA degree in Graphic Design from UW before she discovered ceramics in 2000. On a whim she signed up for a pottery class at Ballard Community Center and has been practicing her craft ever since. She has been teaching at Greenlake CC since 2012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie has enjoyed teaching at GCC since 1999. She has completed comprehensive training in both the Iyengar and Anusara styles of yoga and her teaching also reflects her study of several spiritual traditions. In 2009, Meg was a graduate of the first Mindfulness Yoga and Meditation Training at Spirit Rock Meditation Center, CA. Compassionate mindfulness is a prominent aspect of her yoga classes. </t>
+  </si>
+  <si>
+    <t>A martial artist since childhood, Brandon has spent time training in Kung Fu, Hapkido, and Ju-Jitsu before coming across Tai Chi around 22 years of age. He has since spent over a year training with his instructor (Glenn Skotdal) at Meridian Tai Chi. Brandon's instructor has deemed his skills considerable enough to represent his particular form of the Chen Man-Ching Yang Style, and as such Brandon is pleased and excited for this opportunity to engage and inform other potential practitioners in this rather enjoyable and peaceful art.</t>
+  </si>
+  <si>
+    <t>A cultural anthropologist, writer, certified qigong instructor and wilderness expedition leader, Lydia is fluent in Mandarin Chinese and holds a Masters in Public Health from UC Berkeley. She is a private student of ZY Qigong Grandmaster Xu Mingtang and has studied intensively with him at Shaolin Monastery in China and has traveled with him worldwide.</t>
+  </si>
+  <si>
+    <t>Sarah has been studying Qigong since 2000, training with Grandmaster Mingtang Xu as a personal student, and with Claire Johnson, both of the ZY Qigong lineage.  She also studies Taoist Medicine, Tui Na and Qigong with Dr. Liu Dong and Master Liu He of Ling Gui Qigong School. A Level 1 ZY Qigong instructor since 2005 and Level 2 since 2013, Sarah teaches regularly in the Seattle area, and has developed and led several “Hiking Qigong” adventures combining Qigong practice with trail hiking in the forests and mountains of Puget Sound.</t>
+  </si>
+  <si>
+    <t>Avery has shared over 40 years of teaching, performing, and choreographing the Pacific Dance Arts locally and globally. Her love for Hawaiian hula, Tahitian dance, and New Zealand Maori haka impacts those who see the many performance groups she has directed and produced in her lifetime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramona has been involved in the fitness and rehabilitation for over 20 years and has a specialized background in physical therapy/injury rehabilitation as well as extensive knowledge in Sports Medicine. Ramona focuses on injury prevention through body awareness, core strength, and coordination. </t>
+  </si>
+  <si>
+    <t>Javier is a 10 year table tennis club player, highest rating about 1800. He was the Greenlake Table Tennins coach for the Sunday 4pm class from 10/2004 to 12/2007, and has volunteered to coach kids on Saturdays since January 2009. Javier gets a lot of positive comments for his ability to explain things and help his students understand what they can do to progress.</t>
+  </si>
+  <si>
+    <t>Ana is anative of Argentina and grew up with the joy of dancing Ballroom Tango, Cumbia and Salsa. Her love for Zumba Fitness began when she moved to Seattle and discover she could share all these exiting mix of rhythms from Latin America in just one class.</t>
+  </si>
+  <si>
+    <t>jocelyn.yee@gcc.org</t>
+  </si>
+  <si>
+    <t>natalie.phillips@gcc.org</t>
+  </si>
+  <si>
+    <t>brandon.murray@gcc.org</t>
+  </si>
+  <si>
+    <t>lydia.neal@gcc.org</t>
+  </si>
+  <si>
+    <t>srah.porter@gcc.org</t>
+  </si>
+  <si>
+    <t>avery.douglas@gcc.org</t>
+  </si>
+  <si>
+    <t>ramona.stephens@gcc.org</t>
+  </si>
+  <si>
+    <t>javier.fletcher@gcc.org</t>
+  </si>
+  <si>
+    <t>ana.andrews@gcc.org</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Martin Luther King Jr. Celebration March</t>
+  </si>
+  <si>
+    <t>Teen Flashlight Candy Hunt</t>
+  </si>
+  <si>
+    <t>Teen Swim</t>
+  </si>
+  <si>
+    <t>Service Learning Hours</t>
+  </si>
+  <si>
+    <t>2016-01-16</t>
+  </si>
+  <si>
+    <t>2016-03-25</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Join us to celebrate Martin Luther King Jr. Day with teens from all over Seattle. This annual event is always tons of fun and ends with a hearty dinner after the march at Rainier Community Center. MUST RSVP WITH GREEN LAKE: (206) 684-0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring your flashlight and a bag for your goodies! </t>
+  </si>
+  <si>
+    <t>Teens with school ID can swim for FREE. Must sign in at the front desk. (Youth are $3.75 without school ID).</t>
+  </si>
+  <si>
+    <t>For high school students who need service
+learning hours Green Lake Community Center is the place to come and volunteer to receive them! Call 206-684-0780 or stop by for more information.</t>
+  </si>
+  <si>
+    <t>11-19</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>12-4:00 pm</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>8-9 pm</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Mon-Fri</t>
+  </si>
+  <si>
+    <t>10 am-9 pm</t>
+  </si>
+  <si>
+    <t>10 am-5 pm</t>
+  </si>
+  <si>
+    <t>candy-hunt.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,8 +771,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +866,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -318,12 +920,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -336,11 +932,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -660,7 +1319,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,7 +1333,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -682,7 +1341,7 @@
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -690,200 +1349,1129 @@
         <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>22</v>
+    <row r="4" spans="1:6" s="23" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="C6" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" style="18" customWidth="1"/>
     <col min="2" max="2" width="48" style="18" customWidth="1"/>
     <col min="3" max="3" width="24" style="17" customWidth="1"/>
-    <col min="4" max="5" width="24" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="18"/>
+    <col min="4" max="5" width="12" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12" style="18" customWidth="1"/>
+    <col min="8" max="8" width="24" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="21" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="120">
+      <c r="A2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="36">
+        <v>195</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" ht="128">
+      <c r="A3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
+      <c r="B3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="36">
+        <v>195</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+    </row>
+    <row r="4" spans="1:24" ht="135">
+      <c r="A4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="36">
+        <v>196</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" ht="330">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="36">
+        <v>88</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="36">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="38">
+        <v>88</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="80">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="36">
+        <v>60</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+    </row>
+    <row r="7" spans="1:24" ht="60">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="36">
+        <v>55</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="36">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+    </row>
+    <row r="8" spans="1:24" ht="60">
+      <c r="A8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="36">
+        <v>40</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="36">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="36">
+        <v>50</v>
+      </c>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" ht="80">
+      <c r="A9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="36">
+        <v>80</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="36">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" ht="135">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="H10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="36">
+        <v>60</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" ht="165">
+      <c r="A11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="36">
+        <v>195</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+    </row>
+    <row r="12" spans="1:24" ht="195">
+      <c r="A12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="36">
+        <v>55</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="36">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" ht="165">
+      <c r="A13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="36">
+        <v>12</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="36">
+        <v>16</v>
+      </c>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" ht="96">
+      <c r="A14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="36">
+        <v>12</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="T14" s="36">
+        <v>16</v>
+      </c>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" ht="120">
+      <c r="A15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="36">
+        <v>60</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" ht="90">
+      <c r="A16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="36">
+        <v>12</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" s="36">
+        <v>12</v>
+      </c>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" ht="180">
+      <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="36">
+        <v>75</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="1:24" s="17" customFormat="1" ht="160">
+      <c r="A18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="36">
+        <v>60</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="36">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="B21" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
+  <autoFilter ref="A1:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -892,10 +2480,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="24" style="4" customWidth="1"/>
     <col min="4" max="4" width="48" style="6" customWidth="1"/>
@@ -904,7 +2492,7 @@
     <col min="7" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -912,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -924,147 +2512,294 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="21" t="str">
+        <v>167</v>
+      </c>
+      <c r="C2" s="19" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>Don Gately</v>
+        <v>Jocelyn Yee</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120">
+      <c r="A3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="19" t="str">
+        <f t="shared" ref="C3:C10" si="0">A3&amp;" "&amp;B3</f>
+        <v>Natalie Phillips</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="130">
+      <c r="A4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Brandon Murray</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105">
+      <c r="A5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lydia Neal</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150">
+      <c r="A6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sarah Porter</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90">
+      <c r="A7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Avery Douglas</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ramona Stephens</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="105">
+      <c r="A9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Javier Fletcher</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="65">
+      <c r="A10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ana Andrews</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" s="6" customFormat="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" s="6" customFormat="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" s="6" customFormat="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" s="6" customFormat="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" s="6" customFormat="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" s="6" customFormat="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" s="6" customFormat="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" s="6" customFormat="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="24" style="7" customWidth="1"/>
     <col min="4" max="4" width="48" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="9"/>
+    <col min="5" max="5" width="8.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="11" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1077,76 +2812,208 @@
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75">
       <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12"/>
+        <v>204</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="3:5" s="9" customFormat="1">
       <c r="C17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="460" windowWidth="29320" windowHeight="17760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27560" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
-    <sheet name="catalogue" sheetId="1" r:id="rId2"/>
+    <sheet name="classes" sheetId="1" r:id="rId2"/>
     <sheet name="directory" sheetId="3" r:id="rId3"/>
     <sheet name="feed" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">catalogue!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">classes!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">directory!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">feed!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">navigation!$A$1:$D$1</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="227">
   <si>
     <t>description</t>
   </si>
@@ -69,9 +69,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
     <t>event-type</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Catalogue</t>
-  </si>
-  <si>
     <t>Directory</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
   </si>
   <si>
     <t>full-name</t>
-  </si>
-  <si>
-    <t>item-name</t>
-  </si>
-  <si>
-    <t>/catalogue.html</t>
   </si>
   <si>
     <t>/directory.html</t>
@@ -716,6 +704,15 @@
   </si>
   <si>
     <t>candy-hunt.png</t>
+  </si>
+  <si>
+    <t>class-name</t>
+  </si>
+  <si>
+    <t>/classes.html</t>
+  </si>
+  <si>
+    <t>Classes</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1349,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
@@ -1357,10 +1354,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9"/>
@@ -1369,28 +1366,28 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1">
       <c r="A4" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -1410,11 +1407,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:X18"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1424,14 +1421,13 @@
     <col min="3" max="3" width="24" style="17" customWidth="1"/>
     <col min="4" max="5" width="12" style="17" customWidth="1"/>
     <col min="6" max="6" width="24" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12" style="18" customWidth="1"/>
-    <col min="8" max="8" width="24" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="7" max="7" width="24" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="21" customFormat="1">
+    <row r="1" spans="1:23" s="21" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1440,108 +1436,105 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="Q1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="R1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="U1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="V1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="W1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="120">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="I2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="J2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="120">
-      <c r="A2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="K2" s="36">
         <v>195</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="36"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
@@ -1549,47 +1542,46 @@
       <c r="U2" s="30"/>
       <c r="V2" s="30"/>
       <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-    </row>
-    <row r="3" spans="1:24" ht="128">
+    </row>
+    <row r="3" spans="1:23" ht="128">
       <c r="A3" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="36">
+      <c r="G3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="36">
         <v>195</v>
       </c>
+      <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
@@ -1597,43 +1589,42 @@
       <c r="U3" s="30"/>
       <c r="V3" s="30"/>
       <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-    </row>
-    <row r="4" spans="1:24" ht="135">
+    </row>
+    <row r="4" spans="1:23" ht="135">
       <c r="A4" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="36">
+      <c r="G4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="36">
         <v>196</v>
       </c>
+      <c r="L4" s="30"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -1645,299 +1636,294 @@
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-    </row>
-    <row r="5" spans="1:24" ht="330">
+    </row>
+    <row r="5" spans="1:23" ht="330">
       <c r="A5" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="30"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="H5" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="36">
+        <v>88</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="N5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="36">
+        <v>88</v>
+      </c>
+      <c r="P5" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="Q5" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="38">
+        <v>88</v>
+      </c>
+      <c r="T5" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="36">
+      <c r="U5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="36">
         <v>88</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="80">
+      <c r="A6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="36">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="37" t="s">
+      <c r="I6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="R5" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="38">
-        <v>88</v>
-      </c>
-      <c r="U5" s="30" t="s">
+      <c r="K6" s="36">
+        <v>60</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="W5" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="X5" s="36">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="80">
-      <c r="A6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="36">
+      <c r="M6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="36">
         <v>60</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="36">
-        <v>60</v>
-      </c>
+      <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
       <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-    </row>
-    <row r="7" spans="1:24" ht="60">
+    </row>
+    <row r="7" spans="1:23" ht="60">
       <c r="A7" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="36">
+      <c r="G7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="36">
         <v>55</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>140</v>
+      <c r="L7" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="36">
+        <v>135</v>
+      </c>
+      <c r="O7" s="36">
         <v>55</v>
       </c>
+      <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-    </row>
-    <row r="8" spans="1:24" ht="60">
+    </row>
+    <row r="8" spans="1:23" ht="60">
       <c r="A8" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="36">
+      <c r="G8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="36">
         <v>40</v>
       </c>
+      <c r="L8" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="M8" s="30" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="36">
+        <v>138</v>
+      </c>
+      <c r="O8" s="36">
         <v>40</v>
       </c>
+      <c r="P8" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="Q8" s="30" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="T8" s="36">
+        <v>138</v>
+      </c>
+      <c r="S8" s="36">
         <v>50</v>
       </c>
+      <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-    </row>
-    <row r="9" spans="1:24" ht="80">
+    </row>
+    <row r="9" spans="1:23" ht="80">
       <c r="A9" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="G9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="36">
+        <v>80</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="36">
+      <c r="O9" s="36">
         <v>80</v>
       </c>
-      <c r="M9" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" s="36">
-        <v>80</v>
-      </c>
+      <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
@@ -1945,52 +1931,52 @@
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-    </row>
-    <row r="10" spans="1:24" ht="135">
+    </row>
+    <row r="10" spans="1:23" ht="135">
       <c r="A10" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" s="30"/>
-      <c r="H10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="36">
+      <c r="G10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="36">
         <v>60</v>
       </c>
+      <c r="L10" s="30" t="s">
+        <v>148</v>
+      </c>
       <c r="M10" s="30" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="P10" s="36">
+        <v>147</v>
+      </c>
+      <c r="O10" s="36">
         <v>60</v>
       </c>
+      <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
@@ -1998,43 +1984,42 @@
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-    </row>
-    <row r="11" spans="1:24" ht="165">
+    </row>
+    <row r="11" spans="1:23" ht="165">
       <c r="A11" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="36">
+      <c r="G11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="36">
         <v>195</v>
       </c>
+      <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
@@ -2046,239 +2031,235 @@
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-    </row>
-    <row r="12" spans="1:24" ht="195">
+    </row>
+    <row r="12" spans="1:23" ht="195">
       <c r="A12" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="36">
+      <c r="G12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="36">
         <v>55</v>
       </c>
+      <c r="L12" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="M12" s="30" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="36">
+        <v>135</v>
+      </c>
+      <c r="O12" s="36">
         <v>55</v>
       </c>
+      <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-    </row>
-    <row r="13" spans="1:24" ht="165">
+    </row>
+    <row r="13" spans="1:23" ht="165">
       <c r="A13" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="36">
+        <v>12</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="36">
+        <v>12</v>
+      </c>
+      <c r="P13" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="36">
-        <v>12</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="P13" s="36">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>159</v>
+      <c r="Q13" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="36">
+        <v>153</v>
+      </c>
+      <c r="S13" s="36">
         <v>16</v>
       </c>
+      <c r="T13" s="30"/>
       <c r="U13" s="30"/>
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-    </row>
-    <row r="14" spans="1:24" ht="96">
+    </row>
+    <row r="14" spans="1:23" ht="96">
       <c r="A14" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="36">
+        <v>12</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" s="36">
+        <v>12</v>
+      </c>
+      <c r="P14" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="36">
-        <v>12</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="36">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>159</v>
+      <c r="Q14" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="36">
+        <v>153</v>
+      </c>
+      <c r="S14" s="36">
         <v>16</v>
       </c>
+      <c r="T14" s="30"/>
       <c r="U14" s="30"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-    </row>
-    <row r="15" spans="1:24" ht="120">
+    </row>
+    <row r="15" spans="1:23" ht="120">
       <c r="A15" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="L15" s="36">
+      <c r="G15" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="36">
         <v>60</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>162</v>
+      <c r="L15" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P15" s="36">
+        <v>157</v>
+      </c>
+      <c r="O15" s="36">
         <v>60</v>
       </c>
+      <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
@@ -2286,165 +2267,164 @@
       <c r="U15" s="30"/>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-    </row>
-    <row r="16" spans="1:24" ht="90">
+    </row>
+    <row r="16" spans="1:23" ht="90">
       <c r="A16" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>75</v>
-      </c>
       <c r="F16" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="36">
+        <v>82</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="36">
         <v>12</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>130</v>
+      <c r="L16" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P16" s="36">
+        <v>157</v>
+      </c>
+      <c r="O16" s="36">
         <v>12</v>
       </c>
+      <c r="P16" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="Q16" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" s="36">
+        <v>157</v>
+      </c>
+      <c r="S16" s="36">
         <v>12</v>
       </c>
+      <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-    </row>
-    <row r="17" spans="1:24" ht="180">
+    </row>
+    <row r="17" spans="1:23" ht="180">
       <c r="A17" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="36">
         <v>75</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="36">
-        <v>75</v>
-      </c>
+      <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="36"/>
-    </row>
-    <row r="18" spans="1:24" s="17" customFormat="1" ht="160">
+      <c r="W17" s="36"/>
+    </row>
+    <row r="18" spans="1:23" s="17" customFormat="1" ht="160">
       <c r="A18" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" s="36">
+        <v>156</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="36">
         <v>60</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>162</v>
+      <c r="L18" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P18" s="36">
+        <v>157</v>
+      </c>
+      <c r="O18" s="36">
         <v>60</v>
       </c>
+      <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -2452,19 +2432,18 @@
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:23">
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:23">
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:23">
       <c r="B21" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
+  <autoFilter ref="A1:G2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2500,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2514,191 +2493,191 @@
     </row>
     <row r="2" spans="1:6" ht="90">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="str">
         <f>A2&amp;" "&amp;B2</f>
         <v>Jocelyn Yee</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:C10" si="0">A3&amp;" "&amp;B3</f>
         <v>Natalie Phillips</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="130">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Murray</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lydia Neal</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="150">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sarah Porter</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Avery Douglas</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ramona Stephens</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="105">
       <c r="A9" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Javier Fletcher</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="65">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ana Andrews</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2783,7 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -2807,22 +2786,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
@@ -2830,135 +2809,135 @@
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>208</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="H2" s="46" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>209</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>210</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27560" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="740" windowWidth="23920" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
-    <sheet name="classes" sheetId="1" r:id="rId2"/>
-    <sheet name="directory" sheetId="3" r:id="rId3"/>
-    <sheet name="feed" sheetId="2" r:id="rId4"/>
+    <sheet name="categories" sheetId="5" r:id="rId2"/>
+    <sheet name="classes" sheetId="1" r:id="rId3"/>
+    <sheet name="directory" sheetId="3" r:id="rId4"/>
+    <sheet name="feed" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">classes!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">directory!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">feed!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categories!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">classes!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">directory!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">feed!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">navigation!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="236">
   <si>
     <t>description</t>
   </si>
@@ -88,6 +90,9 @@
   </si>
   <si>
     <t>full-name</t>
+  </si>
+  <si>
+    <t>/catalogue.html</t>
   </si>
   <si>
     <t>/directory.html</t>
@@ -709,10 +714,34 @@
     <t>class-name</t>
   </si>
   <si>
-    <t>/classes.html</t>
-  </si>
-  <si>
     <t>Classes</t>
+  </si>
+  <si>
+    <t>category-label</t>
+  </si>
+  <si>
+    <t>Visual Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>arts-crafts.png</t>
+  </si>
+  <si>
+    <t>Fitness, Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>fitness.png</t>
+  </si>
+  <si>
+    <t>Performing Arts &amp; Dance</t>
+  </si>
+  <si>
+    <t>performing-arts.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletics </t>
+  </si>
+  <si>
+    <t>athletics.png</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1356,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1369,7 +1398,7 @@
         <v>226</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -1378,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="24"/>
     </row>
@@ -1387,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -1406,6 +1435,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
@@ -1427,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="21" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1436,96 +1549,96 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="120">
       <c r="A2" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2" s="36">
         <v>195</v>
@@ -1545,34 +1658,34 @@
     </row>
     <row r="3" spans="1:23" ht="128">
       <c r="A3" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3" s="36">
         <v>195</v>
@@ -1592,34 +1705,34 @@
     </row>
     <row r="4" spans="1:23" ht="135">
       <c r="A4" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="K4" s="36">
         <v>196</v>
@@ -1639,68 +1752,68 @@
     </row>
     <row r="5" spans="1:23" ht="330">
       <c r="A5" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5" s="36">
         <v>88</v>
       </c>
       <c r="L5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="O5" s="36">
         <v>88</v>
       </c>
       <c r="P5" s="37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R5" s="37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S5" s="38">
         <v>88</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W5" s="36">
         <v>88</v>
@@ -1708,44 +1821,44 @@
     </row>
     <row r="6" spans="1:23" ht="80">
       <c r="A6" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="36">
         <v>60</v>
       </c>
       <c r="L6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="O6" s="36">
         <v>60</v>
@@ -1761,46 +1874,46 @@
     </row>
     <row r="7" spans="1:23" ht="60">
       <c r="A7" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K7" s="36">
         <v>55</v>
       </c>
       <c r="L7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>135</v>
       </c>
       <c r="O7" s="36">
         <v>55</v>
@@ -1816,58 +1929,58 @@
     </row>
     <row r="8" spans="1:23" ht="60">
       <c r="A8" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K8" s="36">
         <v>40</v>
       </c>
       <c r="L8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>138</v>
       </c>
       <c r="O8" s="36">
         <v>40</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S8" s="36">
         <v>50</v>
@@ -1879,46 +1992,46 @@
     </row>
     <row r="9" spans="1:23" ht="80">
       <c r="A9" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="36">
         <v>80</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O9" s="36">
         <v>80</v>
@@ -1934,44 +2047,44 @@
     </row>
     <row r="10" spans="1:23" ht="135">
       <c r="A10" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K10" s="36">
         <v>60</v>
       </c>
       <c r="L10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="O10" s="36">
         <v>60</v>
@@ -1987,34 +2100,34 @@
     </row>
     <row r="11" spans="1:23" ht="165">
       <c r="A11" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="K11" s="36">
         <v>195</v>
@@ -2034,46 +2147,46 @@
     </row>
     <row r="12" spans="1:23" ht="195">
       <c r="A12" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" s="36">
         <v>55</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O12" s="36">
         <v>55</v>
@@ -2089,58 +2202,58 @@
     </row>
     <row r="13" spans="1:23" ht="165">
       <c r="A13" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" s="36">
         <v>12</v>
       </c>
       <c r="L13" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>153</v>
       </c>
       <c r="O13" s="36">
         <v>12</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S13" s="36">
         <v>16</v>
@@ -2152,58 +2265,58 @@
     </row>
     <row r="14" spans="1:23" ht="96">
       <c r="A14" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="36">
         <v>12</v>
       </c>
       <c r="L14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>153</v>
       </c>
       <c r="O14" s="36">
         <v>12</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S14" s="36">
         <v>16</v>
@@ -2215,46 +2328,46 @@
     </row>
     <row r="15" spans="1:23" ht="120">
       <c r="A15" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K15" s="36">
         <v>60</v>
       </c>
       <c r="L15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="O15" s="36">
         <v>60</v>
@@ -2270,58 +2383,58 @@
     </row>
     <row r="16" spans="1:23" ht="90">
       <c r="A16" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K16" s="36">
         <v>12</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" s="36">
         <v>12</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S16" s="36">
         <v>12</v>
@@ -2333,34 +2446,34 @@
     </row>
     <row r="17" spans="1:23" ht="180">
       <c r="A17" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" s="36">
         <v>75</v>
@@ -2380,46 +2493,46 @@
     </row>
     <row r="18" spans="1:23" s="17" customFormat="1" ht="160">
       <c r="A18" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18" s="36">
         <v>60</v>
       </c>
       <c r="L18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="O18" s="36">
         <v>60</v>
@@ -2454,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -2493,191 +2606,191 @@
     </row>
     <row r="2" spans="1:6" ht="90">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="19" t="str">
         <f>A2&amp;" "&amp;B2</f>
         <v>Jocelyn Yee</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:C10" si="0">A3&amp;" "&amp;B3</f>
         <v>Natalie Phillips</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="130">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Murray</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lydia Neal</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="150">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sarah Porter</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90">
       <c r="A7" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Avery Douglas</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90">
       <c r="A8" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ramona Stephens</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="105">
       <c r="A9" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Javier Fletcher</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="65">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ana Andrews</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2758,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -2792,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
@@ -2809,135 +2922,135 @@
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="740" windowWidth="23920" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19840" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="235">
   <si>
     <t>description</t>
   </si>
@@ -83,22 +83,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
     <t>full-name</t>
-  </si>
-  <si>
-    <t>/catalogue.html</t>
-  </si>
-  <si>
-    <t>/directory.html</t>
-  </si>
-  <si>
-    <t>/events.html</t>
   </si>
   <si>
     <t>age</t>
@@ -714,9 +699,6 @@
     <t>class-name</t>
   </si>
   <si>
-    <t>Classes</t>
-  </si>
-  <si>
     <t>category-label</t>
   </si>
   <si>
@@ -742,6 +724,21 @@
   </si>
   <si>
     <t>athletics.png</t>
+  </si>
+  <si>
+    <t>Center Programs</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>Seattle Parks &amp; Recreation</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -892,7 +889,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -959,7 +956,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1353,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1395,33 +1391,32 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" s="23" customFormat="1">
-      <c r="A4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
       </c>
       <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -1454,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>11</v>
@@ -1462,48 +1457,48 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1535,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="21" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1549,1002 +1544,1002 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="Q1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="R1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="S1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="T1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="U1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="V1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="W1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="120">
+      <c r="A2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="I2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="J2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="K2" s="35">
+        <v>195</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="128">
+      <c r="A3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="I3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="120">
-      <c r="A2" s="25" t="s">
+      <c r="K3" s="35">
+        <v>195</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="135">
+      <c r="A4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="35">
+        <v>196</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+    </row>
+    <row r="5" spans="1:23" ht="330">
+      <c r="A5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="35">
+        <v>88</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="35">
+        <v>88</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="37">
+        <v>88</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="80">
+      <c r="A6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="35">
+        <v>60</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="35">
+        <v>60</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="60">
+      <c r="A7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="35">
+        <v>55</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="35">
+        <v>55</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="60">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="35">
+        <v>40</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="35">
+        <v>40</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" s="35">
+        <v>50</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" spans="1:23" ht="80">
+      <c r="A9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="35">
+        <v>80</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="35">
+        <v>80</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+    </row>
+    <row r="10" spans="1:23" ht="135">
+      <c r="A10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="35">
         <v>60</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="L10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="35">
+        <v>60</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" spans="1:23" ht="165">
+      <c r="A11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="35">
+        <v>195</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" spans="1:23" ht="195">
+      <c r="A12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="D12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="35">
+        <v>55</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="35">
+        <v>55</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+    </row>
+    <row r="13" spans="1:23" ht="165">
+      <c r="A13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="35">
+        <v>12</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="35">
+        <v>12</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="S13" s="35">
+        <v>16</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="96">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="35">
+        <v>12</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="35">
+        <v>12</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="S14" s="35">
+        <v>16</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" spans="1:23" ht="120">
+      <c r="A15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="35">
+        <v>60</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="35">
+        <v>60</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="90">
+      <c r="A16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="G16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="35">
+        <v>12</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="35">
+        <v>12</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="S16" s="35">
+        <v>12</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+    </row>
+    <row r="17" spans="1:23" ht="180">
+      <c r="A17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="35">
+        <v>75</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="35"/>
+    </row>
+    <row r="18" spans="1:23" s="17" customFormat="1" ht="160">
+      <c r="A18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="36">
-        <v>195</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-    </row>
-    <row r="3" spans="1:23" ht="128">
-      <c r="A3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="J18" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="35">
         <v>60</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="L18" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="36">
-        <v>195</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-    </row>
-    <row r="4" spans="1:23" ht="135">
-      <c r="A4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="N18" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="35">
         <v>60</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="36">
-        <v>196</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-    </row>
-    <row r="5" spans="1:23" ht="330">
-      <c r="A5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="36">
-        <v>88</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="36">
-        <v>88</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" s="38">
-        <v>88</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="W5" s="36">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="80">
-      <c r="A6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="36">
-        <v>60</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" s="36">
-        <v>60</v>
-      </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-    </row>
-    <row r="7" spans="1:23" ht="60">
-      <c r="A7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="36">
-        <v>55</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="36">
-        <v>55</v>
-      </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-    </row>
-    <row r="8" spans="1:23" ht="60">
-      <c r="A8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="36">
-        <v>40</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="36">
-        <v>40</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="36">
-        <v>50</v>
-      </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-    </row>
-    <row r="9" spans="1:23" ht="80">
-      <c r="A9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="36">
-        <v>80</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="36">
-        <v>80</v>
-      </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:23" ht="135">
-      <c r="A10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="36">
-        <v>60</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="36">
-        <v>60</v>
-      </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" spans="1:23" ht="165">
-      <c r="A11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="36">
-        <v>195</v>
-      </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-    </row>
-    <row r="12" spans="1:23" ht="195">
-      <c r="A12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="36">
-        <v>55</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O12" s="36">
-        <v>55</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:23" ht="165">
-      <c r="A13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" s="36">
-        <v>12</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="O13" s="36">
-        <v>12</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="S13" s="36">
-        <v>16</v>
-      </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-    </row>
-    <row r="14" spans="1:23" ht="96">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="36">
-        <v>12</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="O14" s="36">
-        <v>12</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="S14" s="36">
-        <v>16</v>
-      </c>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:23" ht="120">
-      <c r="A15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="36">
-        <v>60</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" s="36">
-        <v>60</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-    </row>
-    <row r="16" spans="1:23" ht="90">
-      <c r="A16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K16" s="36">
-        <v>12</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="36">
-        <v>12</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="S16" s="36">
-        <v>12</v>
-      </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-    </row>
-    <row r="17" spans="1:23" ht="180">
-      <c r="A17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="36">
-        <v>75</v>
-      </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="36"/>
-    </row>
-    <row r="18" spans="1:23" s="17" customFormat="1" ht="160">
-      <c r="A18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="36">
-        <v>60</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="O18" s="36">
-        <v>60</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23">
       <c r="B19" s="20"/>
@@ -2572,7 +2567,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2592,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2606,191 +2601,191 @@
     </row>
     <row r="2" spans="1:6" ht="90">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" s="19" t="str">
         <f>A2&amp;" "&amp;B2</f>
         <v>Jocelyn Yee</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:C10" si="0">A3&amp;" "&amp;B3</f>
         <v>Natalie Phillips</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="130">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Murray</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105">
       <c r="A5" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lydia Neal</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="150">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sarah Porter</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90">
       <c r="A7" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Avery Douglas</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ramona Stephens</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="105">
       <c r="A9" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Javier Fletcher</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="65">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ana Andrews</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2905,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>215</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>210</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
@@ -2922,135 +2917,135 @@
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>212</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>209</v>
+        <v>67</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19840" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="16040" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
     <sheet name="categories" sheetId="5" r:id="rId2"/>
     <sheet name="classes" sheetId="1" r:id="rId3"/>
     <sheet name="directory" sheetId="3" r:id="rId4"/>
-    <sheet name="feed" sheetId="2" r:id="rId5"/>
+    <sheet name="events" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categories!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">classes!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">directory!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">feed!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">events!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">navigation!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -638,9 +638,6 @@
     <t>2016-01-16</t>
   </si>
   <si>
-    <t>2016-03-25</t>
-  </si>
-  <si>
     <t>ongoing</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>12-4:00 pm</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -739,6 +733,12 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>12-4 pm</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -1391,30 +1391,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>11</v>
@@ -1460,10 +1460,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
@@ -1473,10 +1473,10 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1484,10 +1484,10 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1535,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="21" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2903,13 +2903,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>209</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>210</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>11</v>
@@ -2926,19 +2926,19 @@
         <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2946,28 +2946,28 @@
         <v>197</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
@@ -2975,25 +2975,25 @@
         <v>198</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>149</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
@@ -3001,25 +3001,25 @@
         <v>199</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -3027,25 +3027,25 @@
         <v>199</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="16040" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="16040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="navigation" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="events" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categories!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categories!$A$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">classes!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">directory!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">events!$A$1:$D$1</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="246">
   <si>
     <t>description</t>
   </si>
@@ -696,12 +696,18 @@
     <t>category-label</t>
   </si>
   <si>
+    <t>class</t>
+  </si>
+  <si>
     <t>Visual Arts &amp; Crafts</t>
   </si>
   <si>
     <t>arts-crafts.png</t>
   </si>
   <si>
+    <t>main</t>
+  </si>
+  <si>
     <t>Fitness, Health &amp; Wellness</t>
   </si>
   <si>
@@ -720,10 +726,37 @@
     <t>athletics.png</t>
   </si>
   <si>
+    <t>teens</t>
+  </si>
+  <si>
+    <t>Teen Programs</t>
+  </si>
+  <si>
+    <t>teen.png</t>
+  </si>
+  <si>
+    <t>supplemental</t>
+  </si>
+  <si>
+    <t>Tots Programs</t>
+  </si>
+  <si>
+    <t>tot.png</t>
+  </si>
+  <si>
+    <t>Senior Programs</t>
+  </si>
+  <si>
+    <t>senior.png</t>
+  </si>
+  <si>
     <t>Center Programs</t>
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>/categories/teens.html</t>
   </si>
   <si>
     <t>Contact Information</t>
@@ -1349,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -1391,32 +1424,41 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -1431,17 +1473,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="1" max="2" width="36" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1454,18 +1495,23 @@
       <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
@@ -1473,9 +1519,12 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1484,10 +1533,13 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1495,14 +1547,59 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:D8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1517,9 +1614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2335,7 +2432,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>73</v>
@@ -2390,7 +2487,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>78</v>
@@ -2500,7 +2597,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>80</v>
@@ -2870,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2935,7 +3032,7 @@
         <v>126</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>210</v>
@@ -2946,7 +3043,7 @@
         <v>197</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>67</v>

--- a/_data/_data.xlsx
+++ b/_data/_data.xlsx
@@ -1615,8 +1615,8 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
